--- a/Input Total Sektor.xlsx
+++ b/Input Total Sektor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\SEMINAR PROPOSAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\Analisis Input Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76273803-E227-400E-A8A8-D98B6919778F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348CFCF4-0FD2-40EF-A50C-4F15B65D6EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{16BB8081-D053-4141-918D-FB64AEBE6EE8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{16BB8081-D053-4141-918D-FB64AEBE6EE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Input" sheetId="1" r:id="rId1"/>
@@ -48,10 +48,6 @@
 Pengolahan</t>
   </si>
   <si>
-    <t>Pengadaan, 
-Listrik dan Gas</t>
-  </si>
-  <si>
     <t>Pengadaan Air, 
 Pengelolaan Sampah, 
 Limbah dan Daur Ulang</t>
@@ -104,6 +100,10 @@
   <si>
     <t>Jasa 
 Lainnya</t>
+  </si>
+  <si>
+    <t>Pengadaan, 
+Listrik dan Gas</t>
   </si>
 </sst>
 </file>
@@ -519,27 +519,27 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" customWidth="1"/>
-    <col min="9" max="12" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" customWidth="1"/>
+    <col min="9" max="12" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="84" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="84" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,49 +550,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>24716840.707241427</v>
       </c>
